--- a/excel_test/test1.xlsx
+++ b/excel_test/test1.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50061353-C27E-4144-8E54-4A3640F8FEE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="シート1" sheetId="1" r:id="rId1"/>
+    <sheet name="シート2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">シート1!$A$1:$K$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,9 +23,337 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emp_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emp_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>retire_flg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これ読む必要ない</t>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emp_name_kana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラム名（物理名）</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ブツリメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名（物理名）</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名（論理名）</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラム名（論理名）</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EMP_INFO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EMP_LOGIN_INFO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULL可</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INCREMENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EMP_INFO.emp_idのFK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>serial_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連番</t>
+    <rPh sb="0" eb="2">
+      <t>レンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>home_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cellphone_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制約</t>
+    <rPh sb="0" eb="2">
+      <t>セイヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ログイン情報</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>携帯電話番号</t>
+    <rPh sb="0" eb="4">
+      <t>ケイタイデンワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自宅電話番号</t>
+    <rPh sb="0" eb="2">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員番号</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員名</t>
+    <rPh sb="0" eb="3">
+      <t>シャインメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員名カナ</t>
+    <rPh sb="0" eb="3">
+      <t>シャインメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退職フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員番号</t>
+    <rPh sb="0" eb="4">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・0 ：在職中
+・1：退職済</t>
+    <rPh sb="4" eb="7">
+      <t>ザイショクチュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイショク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「-」付き</t>
+    <rPh sb="3" eb="4">
+      <t>ヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角文字の社員名カタカナ</t>
+    <rPh sb="0" eb="4">
+      <t>ハンカクモジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小数点</t>
+    <rPh sb="0" eb="3">
+      <t>ショウスウテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YYYY-MM-DD HH:MM:SS.00000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +361,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,15 +400,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +746,382 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="3">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="37.5">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3">
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K1" xr:uid="{EC4CBA3B-BC8E-4150-9829-4638547C3E5F}"/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C3533F-2AFE-4514-9C6A-4C9CBDFB1622}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel_test/test1.xlsx
+++ b/excel_test/test1.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50061353-C27E-4144-8E54-4A3640F8FEE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA285735-37B0-4611-86EA-93241A291149}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="シート1" sheetId="1" r:id="rId1"/>
+    <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="シート2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">シート1!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">テーブル一覧!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -750,7 +750,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M3"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>

--- a/excel_test/test1.xlsx
+++ b/excel_test/test1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA285735-37B0-4611-86EA-93241A291149}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8D8EC8-D100-4AF2-8518-19F27611B81A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,9 +11,6 @@
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="シート2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">テーブル一覧!$A$1:$K$1</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,124 +21,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>No</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイズ</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テーブル名（物理名）</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テーブル名（論理名）</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カラム名（物理名）</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ブツリメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カラム名（論理名）</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>データ型</t>
     <rPh sb="3" eb="4">
       <t>ガタ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>emp_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>emp_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>update_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>retire_flg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CHAR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>これ読む必要ない</t>
-    <rPh sb="2" eb="3">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>emp_name_kana</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カラム名（物理名）</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ブツリメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル名（物理名）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NULL可</t>
     <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル名（論理名）</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ロンリ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カラム名（論理名）</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ロンリ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>制約</t>
+    <rPh sb="0" eb="2">
+      <t>セイヤク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小数点</t>
+    <rPh sb="0" eb="3">
+      <t>ショウスウテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>EMP_INFO</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>社員情報</t>
@@ -151,104 +126,11 @@
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EMP_LOGIN_INFO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NULL可</t>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INCREMENT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EMP_INFO.emp_idのFK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>serial_num</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>連番</t>
-    <rPh sb="0" eb="2">
-      <t>レンバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>home_num</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cellphone_num</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>制約</t>
-    <rPh sb="0" eb="2">
-      <t>セイヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員ログイン情報</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>携帯電話番号</t>
-    <rPh sb="0" eb="4">
-      <t>ケイタイデンワ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自宅電話番号</t>
-    <rPh sb="0" eb="2">
-      <t>ジタク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>デンワ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>emp_id</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>社員番号</t>
@@ -258,42 +140,100 @@
     <rPh sb="2" eb="4">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>emp_name</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>社員名</t>
     <rPh sb="0" eb="3">
       <t>シャインメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>emp_name_kana</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>社員名カナ</t>
     <rPh sb="0" eb="3">
       <t>シャインメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>半角文字の社員名カタカナ</t>
+    <rPh sb="0" eb="4">
+      <t>ハンカクモジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
       <t>コウシンビ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>YYYY-MM-DD HH:MM:SS.00000</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>retire_flg</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>退職フラグ</t>
     <rPh sb="0" eb="2">
       <t>タイショク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員番号</t>
-    <rPh sb="0" eb="4">
-      <t>シャインバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>・0 ：在職中
@@ -307,46 +247,93 @@
     <rPh sb="13" eb="14">
       <t>ズ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EMP_LOGIN_INFO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員ログイン情報</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>serial_num</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>連番</t>
+    <rPh sb="0" eb="2">
+      <t>レンバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INCREMENT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>home_num</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自宅電話番号</t>
+    <rPh sb="0" eb="2">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>「-」付き</t>
     <rPh sb="3" eb="4">
       <t>ヅ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cellphone_num</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>携帯電話番号</t>
+    <rPh sb="0" eb="4">
+      <t>ケイタイデンワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員番号</t>
+    <rPh sb="0" eb="4">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>FK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半角文字の社員名カタカナ</t>
-    <rPh sb="0" eb="4">
-      <t>ハンカクモジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小数点</t>
-    <rPh sb="0" eb="3">
-      <t>ショウスウテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>YYYY-MM-DD HH:MM:SS.00000</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EMP_INFO.emp_idのFK</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -362,16 +349,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="6"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -410,21 +397,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -443,28 +415,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -750,378 +731,371 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>25</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3">
-        <v>2</v>
+      <c r="A3" s="2">
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3">
         <v>30</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3">
-        <v>3</v>
+      <c r="A4" s="2">
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G4" s="3">
         <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="3">
-        <v>4</v>
+      <c r="A5" s="2">
+        <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G5" s="3">
         <v>7</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J5" s="3">
         <v>5</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="37.5">
-      <c r="A6" s="3">
-        <v>5</v>
+      <c r="A6" s="2">
+        <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="3">
-        <v>6</v>
+      <c r="A7" s="2">
+        <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3">
         <v>6</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="3">
-        <v>7</v>
+      <c r="A8" s="2">
+        <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3">
         <v>15</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="3">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G9" s="3">
         <v>15</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="3">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G10" s="3">
         <v>6</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{EC4CBA3B-BC8E-4150-9829-4638547C3E5F}"/>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C3533F-2AFE-4514-9C6A-4C9CBDFB1622}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFBAF37-A42C-4A0A-A666-687429DB68B1}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection sqref="A1:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>